--- a/biology/Zoologie/Crispatotrochus_septumdentatus/Crispatotrochus_septumdentatus.xlsx
+++ b/biology/Zoologie/Crispatotrochus_septumdentatus/Crispatotrochus_septumdentatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crispatotrochus septumdentatus est une espèce de coraux appartenant à la famille des Caryophylliidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte en Nouvelle-Calédonie a une profondeur de 260-270 m[2]. Cette espèce serait endémique de cette région et se rencontrerait entre 187 et 400 de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Nouvelle-Calédonie a une profondeur de 260-270 m. Cette espèce serait endémique de cette région et se rencontrerait entre 187 et 400 de profondeur.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique,  du latin septum, « clôture, haie, barrière… », et dentatus, « dentelé », lui a été donné en référence aux petites structures dentelées présentes sur les « marges septales axiales des primaires »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique,  du latin septum, « clôture, haie, barrière… », et dentatus, « dentelé », lui a été donné en référence aux petites structures dentelées présentes sur les « marges septales axiales des primaires ».
 </t>
         </is>
       </c>
@@ -599,7 +617,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kitahara &amp; Cairns, 2008 : New records of the genus Crispatotrochus (Scleractinia; Caryophylliidae) from New Caledonia, with description of a new species. Zootaxa, vol. 1940, pp. 59-68 (texte intégral) (en) [PDF].</t>
         </is>
